--- a/Finflux Automation Excels/Client/5045-CompondingPenalityCharge-MoraoriumOnPrinciple2-BeforeAndAfterGracePeriod-6thInstallment.xlsx
+++ b/Finflux Automation Excels/Client/5045-CompondingPenalityCharge-MoraoriumOnPrinciple2-BeforeAndAfterGracePeriod-6thInstallment.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="49">
   <si>
     <t>OverDueTillDate</t>
   </si>
@@ -177,7 +177,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,6 +220,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -254,7 +261,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -280,6 +287,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -607,7 +615,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,7 +728,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection sqref="A1:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -937,7 +945,7 @@
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1343,10 +1351,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1388,7 +1396,7 @@
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
-        <v>4040</v>
+        <v>448</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>30</v>
@@ -1400,7 +1408,7 @@
         <v>31</v>
       </c>
       <c r="E2" s="7">
-        <v>52.6</v>
+        <v>52.45</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
@@ -1412,7 +1420,7 @@
     </row>
     <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>4039</v>
+        <v>447</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>30</v>
@@ -1424,7 +1432,7 @@
         <v>32</v>
       </c>
       <c r="E3" s="7">
-        <v>0</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -1436,7 +1444,7 @@
     </row>
     <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
-        <v>4034</v>
+        <v>445</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>30</v>
@@ -1448,7 +1456,7 @@
         <v>32</v>
       </c>
       <c r="E4" s="7">
-        <v>0.01</v>
+        <v>0.43</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -1460,7 +1468,7 @@
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>4029</v>
+        <v>437</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>30</v>
@@ -1472,7 +1480,7 @@
         <v>32</v>
       </c>
       <c r="E5" s="7">
-        <v>0.01</v>
+        <v>51.88</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -1484,43 +1492,43 @@
     </row>
     <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
-        <v>4023</v>
+        <v>444</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C6" s="8">
-        <v>42094</v>
+        <v>42063</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" s="7">
-        <v>0.13</v>
+        <v>46.58</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="7">
-        <v>0</v>
+      <c r="J6" s="9">
+        <v>5090.96</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
-        <v>4016</v>
+        <v>443</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="8">
-        <v>42094</v>
+        <v>42063</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>32</v>
       </c>
       <c r="E7" s="7">
-        <v>51.88</v>
+        <v>0.01</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -1532,7 +1540,7 @@
     </row>
     <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
-        <v>4028</v>
+        <v>441</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>30</v>
@@ -1544,7 +1552,7 @@
         <v>32</v>
       </c>
       <c r="E8" s="7">
-        <v>46.43</v>
+        <v>0.01</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -1556,7 +1564,7 @@
     </row>
     <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
-        <v>4015</v>
+        <v>439</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>30</v>
@@ -1565,46 +1573,46 @@
         <v>42063</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E9" s="7">
-        <v>46.43</v>
+        <v>0.13</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="9">
-        <v>5090.8100000000004</v>
+      <c r="J9" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
-        <v>4013</v>
+        <v>435</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="8">
-        <v>42035</v>
+        <v>42063</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E10" s="7">
-        <v>44.38</v>
+        <v>46.43</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="9">
-        <v>5044.38</v>
+      <c r="J10" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
-        <v>4012</v>
+        <v>434</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>30</v>
@@ -1613,7 +1621,7 @@
         <v>42035</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E11" s="7">
         <v>44.38</v>
@@ -1622,31 +1630,55 @@
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="7">
-        <v>0</v>
+      <c r="J11" s="9">
+        <v>5044.38</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
-        <v>4011</v>
+        <v>433</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="8">
+        <v>42035</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="7">
+        <v>44.38</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>432</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="8">
         <v>42009</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E13" s="6">
         <v>5000</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6">
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6">
         <v>5000</v>
       </c>
     </row>
@@ -1660,12 +1692,14 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="9.140625" style="11"/>
+    <col min="5" max="6" width="9.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1714,7 +1748,7 @@
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>40</v>
       </c>
@@ -1745,7 +1779,7 @@
       </c>
       <c r="K3" s="10"/>
     </row>
-    <row r="4" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>40</v>
       </c>
@@ -1776,7 +1810,7 @@
       </c>
       <c r="K4" s="10"/>
     </row>
-    <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>40</v>
       </c>
@@ -1807,7 +1841,7 @@
       </c>
       <c r="K5" s="10"/>
     </row>
-    <row r="6" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>40</v>
       </c>
@@ -1838,7 +1872,7 @@
       </c>
       <c r="K6" s="10"/>
     </row>
-    <row r="7" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>40</v>
       </c>
@@ -1871,11 +1905,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K3" r:id="rId1" location="/loanaccountcharge/43/waivecharge/215" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/43/waivecharge/215"/>
-    <hyperlink ref="K4" r:id="rId2" location="/loanaccountcharge/43/waivecharge/216" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/43/waivecharge/216"/>
-    <hyperlink ref="K5" r:id="rId3" location="/loanaccountcharge/43/waivecharge/217" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/43/waivecharge/217"/>
-    <hyperlink ref="K6" r:id="rId4" location="/loanaccountcharge/43/waivecharge/218" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/43/waivecharge/218"/>
-    <hyperlink ref="K7" r:id="rId5" location="/loanaccountcharge/43/waivecharge/219" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/43/waivecharge/219"/>
+    <hyperlink ref="K3" r:id="rId1" location="/loanaccountcharge/12/waivecharge/63" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/12/waivecharge/63"/>
+    <hyperlink ref="K4" r:id="rId2" location="/loanaccountcharge/12/waivecharge/64" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/12/waivecharge/64"/>
+    <hyperlink ref="K5" r:id="rId3" location="/loanaccountcharge/12/waivecharge/65" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/12/waivecharge/65"/>
+    <hyperlink ref="K6" r:id="rId4" location="/loanaccountcharge/12/waivecharge/66" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/12/waivecharge/66"/>
+    <hyperlink ref="K7" r:id="rId5" location="/loanaccountcharge/12/waivecharge/67" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/12/waivecharge/67"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Finflux Automation Excels/Client/5045-CompondingPenalityCharge-MoraoriumOnPrinciple2-BeforeAndAfterGracePeriod-6thInstallment.xlsx
+++ b/Finflux Automation Excels/Client/5045-CompondingPenalityCharge-MoraoriumOnPrinciple2-BeforeAndAfterGracePeriod-6thInstallment.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="5"/>
@@ -167,10 +167,10 @@
     <t>$0.01</t>
   </si>
   <si>
-    <t>$0.43</t>
-  </si>
-  <si>
     <t>$0.14</t>
+  </si>
+  <si>
+    <t>$0.3</t>
   </si>
 </sst>
 </file>
@@ -615,7 +615,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,7 +675,7 @@
         <v>247.77</v>
       </c>
       <c r="F3" s="7">
-        <v>0</v>
+        <v>97.04</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -700,7 +700,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>0.72</v>
+        <v>0.59</v>
       </c>
       <c r="B5" s="7">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="7">
-        <v>0.72</v>
+        <v>0.59</v>
       </c>
       <c r="F5" s="7">
-        <v>0</v>
+        <v>0.15</v>
       </c>
     </row>
   </sheetData>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="F5" s="7">
-        <v>0.56999999999999995</v>
+        <v>0.44</v>
       </c>
       <c r="G5" s="9">
-        <v>1055.6199999999999</v>
+        <v>1055.49</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -945,7 +945,7 @@
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="J5" s="7">
-        <v>0.56999999999999995</v>
+        <v>0.44</v>
       </c>
       <c r="K5" s="9">
-        <v>1055.6199999999999</v>
+        <v>1055.49</v>
       </c>
       <c r="L5" s="7">
         <v>0</v>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="9">
-        <v>1055.6199999999999</v>
+        <v>1055.49</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -1354,7 +1354,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1396,7 +1396,7 @@
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>30</v>
@@ -1408,19 +1408,19 @@
         <v>31</v>
       </c>
       <c r="E2" s="7">
-        <v>52.45</v>
+        <v>52.32</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="9">
-        <v>5143.41</v>
+        <v>5143.28</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>30</v>
@@ -1444,7 +1444,7 @@
     </row>
     <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>30</v>
@@ -1456,7 +1456,7 @@
         <v>32</v>
       </c>
       <c r="E4" s="7">
-        <v>0.43</v>
+        <v>0.3</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -1468,7 +1468,7 @@
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>30</v>
@@ -1492,7 +1492,7 @@
     </row>
     <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>30</v>
@@ -1516,7 +1516,7 @@
     </row>
     <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>30</v>
@@ -1540,7 +1540,7 @@
     </row>
     <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>30</v>
@@ -1564,7 +1564,7 @@
     </row>
     <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>30</v>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>30</v>
@@ -1612,7 +1612,7 @@
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>30</v>
@@ -1636,7 +1636,7 @@
     </row>
     <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>30</v>
@@ -1660,7 +1660,7 @@
     </row>
     <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>30</v>
@@ -1692,14 +1692,14 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="9.140625" style="11"/>
-    <col min="5" max="6" width="9.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="11"/>
+    <col min="5" max="7" width="9.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1859,7 +1859,7 @@
         <v>43</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>45</v>
@@ -1868,7 +1868,7 @@
         <v>45</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K6" s="10"/>
     </row>
@@ -1890,7 +1890,7 @@
         <v>43</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>45</v>
@@ -1899,17 +1899,17 @@
         <v>45</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K7" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K3" r:id="rId1" location="/loanaccountcharge/12/waivecharge/63" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/12/waivecharge/63"/>
-    <hyperlink ref="K4" r:id="rId2" location="/loanaccountcharge/12/waivecharge/64" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/12/waivecharge/64"/>
-    <hyperlink ref="K5" r:id="rId3" location="/loanaccountcharge/12/waivecharge/65" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/12/waivecharge/65"/>
-    <hyperlink ref="K6" r:id="rId4" location="/loanaccountcharge/12/waivecharge/66" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/12/waivecharge/66"/>
-    <hyperlink ref="K7" r:id="rId5" location="/loanaccountcharge/12/waivecharge/67" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/12/waivecharge/67"/>
+    <hyperlink ref="K3" r:id="rId1" location="/loanaccountcharge/20/waivecharge/88" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/20/waivecharge/88"/>
+    <hyperlink ref="K4" r:id="rId2" location="/loanaccountcharge/20/waivecharge/91" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/20/waivecharge/91"/>
+    <hyperlink ref="K5" r:id="rId3" location="/loanaccountcharge/20/waivecharge/94" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/20/waivecharge/94"/>
+    <hyperlink ref="K6" r:id="rId4" location="/loanaccountcharge/20/waivecharge/97" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/20/waivecharge/97"/>
+    <hyperlink ref="K7" r:id="rId5" location="/loanaccountcharge/20/waivecharge/100" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/20/waivecharge/100"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
